--- a/war/config/farsi/1900-farsi-course-examples.xlsx
+++ b/war/config/farsi/1900-farsi-course-examples.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="18240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1900-farsi-course-examples-with" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -15594,8 +15594,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -15956,14 +15956,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1858"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
